--- a/data/BMED.xlsx
+++ b/data/BMED.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -393,6 +408,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -410,10 +440,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BMED 101 and MATH 141.</t>
+          <t>BMED 101 and MATH 141.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -432,10 +477,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MATH 143.</t>
+          <t>MATH 143.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -454,12 +514,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MATH 142; for engineering students only. Corequisite: BIO 213. Recommended: CHEM 124.</t>
+          <t>MATH 142; for engineering students only.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>F,W,SP,SU</t>
+          <t>BIO 213.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>CHEM 124.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F,W,SP,SU  </t>
         </is>
       </c>
     </row>
@@ -481,6 +556,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -498,10 +588,25 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EE 201; and CPE/CSC 101, CSC 231, CSC 232, or CSC 234.</t>
+          <t>EE 201; and CPE/CSC 101, CSC 231, CSC 232, or CSC 234.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -520,12 +625,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MATE 210, ME 328, STAT 312. Recommended: BMED 420, BMED 460.</t>
+          <t>MATE 210, ME 328, STAT 312.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>BMED 420, BMED 460.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -542,10 +662,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EE 201, MATH 344.</t>
+          <t>EE 201, MATH 344.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -564,10 +699,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ME 212; junior standing; and consent of department chair.</t>
+          <t>ME 212; junior standing; and consent of department chair.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -591,6 +741,21 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -608,10 +773,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BMED 410, and CE 207 or CE 208; or CE 406; or ME 328.</t>
+          <t>BMED 410, and CE 207 or CE 208; or CE 406; or ME 328.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -630,10 +810,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>KINE 403; or ME 326.</t>
+          <t>KINE 403; or ME 326.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -652,12 +847,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CE 204 or CE 208; and ME 212. Corequisite: BMED 310.</t>
+          <t>CE 204 or CE 208; and ME 212.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>W, SP</t>
+          <t>BMED 310.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W, SP </t>
         </is>
       </c>
     </row>
@@ -674,12 +884,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CE 204 or CE 208; and MATE 210. Corequisite: BMED 310.</t>
+          <t>CE 204 or CE 208; and MATE 210.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>W, SP</t>
+          <t>BMED 310.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W, SP </t>
         </is>
       </c>
     </row>
@@ -696,10 +921,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>BMED 420.</t>
+          <t>BMED 420.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -718,10 +958,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ME 302 and ME 341.</t>
+          <t>ME 302 and ME 341.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -740,10 +995,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>BMED 310.</t>
+          <t>BMED 310.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -762,10 +1032,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>BMED 212 or MATE 210.</t>
+          <t>BMED 212 or MATE 210.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -784,10 +1069,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BMED 212 or MATE 210.</t>
+          <t>BMED 212 or MATE 210.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -811,7 +1111,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>WCorequisite: BMED 434/EE 423/MATE 430.</t>
+          <t>BMED 434/EE 423/MATE 430.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -828,10 +1143,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BMED 212 or MATE 210.</t>
+          <t>BMED 212 or MATE 210.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -850,10 +1180,25 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BMED 310 and EE 201.</t>
+          <t>BMED 310 and EE 201.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -872,10 +1217,25 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BMED 440.</t>
+          <t>BMED 440.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -899,6 +1259,21 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -916,10 +1291,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BMED 410.</t>
+          <t>BMED 410.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -938,10 +1328,25 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BMED 455.</t>
+          <t>BMED 455.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -965,6 +1370,21 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -982,10 +1402,25 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BMED 310 and either BIO 231 or BIO 232; or graduate standing.</t>
+          <t>BMED 310 and either BIO 231 or BIO 232; or graduate standing.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1009,6 +1444,21 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1031,6 +1481,21 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1048,10 +1513,25 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>IME 314, MATH 244 and ME 302.</t>
+          <t>IME 314, MATH 244 and ME 302.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1070,10 +1550,25 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>BMED 481.</t>
+          <t>BMED 481.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1092,10 +1587,25 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BMED 482.</t>
+          <t>BMED 482.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1119,6 +1629,21 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -1141,6 +1666,21 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -1158,10 +1698,25 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BMED 440.</t>
+          <t>BMED 440.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1180,10 +1735,25 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>one of the following: ASCI 438, BIO 361, or BMED 460; or graduate standing.</t>
+          <t>one of the ASCI 438, BIO 361, or BMED 460; or graduate standing.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1202,10 +1772,25 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Graduate standing, MATH 143, CHEM 125, PHYS 131 or PHYS 141, BIO 161 or consent of instructor.</t>
+          <t>Graduate standing, MATH 143, CHEM 125, PHYS 131 or PHYS 141, BIO 161 or consent of instructor.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1224,10 +1809,25 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PHYS 132, MATH 244, and graduate standing.</t>
+          <t>PHYS 132, MATH 244, and graduate standing.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1251,6 +1851,21 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -1268,10 +1883,25 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CE 204 or CE 208; and BMED 460.</t>
+          <t>CE 204 or CE 208; and BMED 460.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1290,10 +1920,25 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>BIO 161, or BIO 213 and BMED/BRAE 213; MATE 210 and graduate standing or consent of instructor.</t>
+          <t>BIO 161, or BIO 213 and BMED/BRAE 213; MATE 210 and graduate standing or consent of instructor.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -1312,10 +1957,25 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>BMED 425, ME 341 or consent of instructor.</t>
+          <t>BMED 425, ME 341 or consent of instructor.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1334,10 +1994,25 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>BMED 460.</t>
+          <t>BMED 460.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1356,10 +2031,25 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>BMED 460.</t>
+          <t>BMED 460.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1383,6 +2073,21 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -1400,10 +2105,25 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MATH 244, BMED 440.</t>
+          <t>MATH 244, BMED 440.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1422,10 +2142,25 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ASCI 438, BIO 361, or BMED 460.</t>
+          <t>ASCI 438, BIO 361, or BMED 460.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1444,12 +2179,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ASCI 438, BIO 361, or BMED 460; and STAT 218 or STAT 312. Corequisite: BMED 560.</t>
+          <t>ASCI 438, BIO 361, or BMED 460; and STAT 218 or STAT 312.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>BMED 560.</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -1471,6 +2221,21 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>F, SP</t>
         </is>
       </c>
@@ -1493,6 +2258,21 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1515,6 +2295,21 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1537,6 +2332,21 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -1559,6 +2369,21 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -1576,10 +2401,25 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>BMED 591 or consent of instructor.</t>
+          <t>BMED 591 or consent of instructor.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1603,6 +2443,21 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1624,6 +2479,21 @@
         </is>
       </c>
       <c r="D58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
